--- a/IWWRMP/Data/EXD/Admin/UMW_Stakeholder_List.xlsx
+++ b/IWWRMP/Data/EXD/Admin/UMW_Stakeholder_List.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project8\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A30DB-E413-4A63-BCE9-8BCFC530FF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C52076-DC8D-41BD-9043-0256F220BD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA473257-3248-42EE-896B-04795D29363B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="UMW Stakeholder List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -630,7 +630,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
